--- a/medicine/Enfance/Paulette_Bourgeois/Paulette_Bourgeois.xlsx
+++ b/medicine/Enfance/Paulette_Bourgeois/Paulette_Bourgeois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paulette Bourgeois, née le 20 juillet 1951 à Winnipeg au Manitoba, est une auteure canadienne de littérature d'enfance et de jeunesse. Elle habite aujourd’hui à Toronto, en Ontario.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paulette Bourgeois est  connue pour ses histoires de Franklin la tortue, une tortue qui, au fil de ses aventures, découvre le monde et les personnes qui l’entourent et qui, petit à petit, se forge son propre caractère. Paulette Bourgeois publie son premier livre en 1986, la première aventure de Franklin. Celle-ci s’intitule Franklin et la nuit et raconte comment Franklin arrive à surmonter sa peur du noir.
 Les aventures de Franklin ont fait l'objet d'une adaptation sous la forme d'une série télévisée d'animation : Franklin et d'un film Le Noël magique de Franklin en 2002. En 2003, elle est devenue membre de l'Ordre du Canada.
@@ -543,7 +557,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2000 : Palmarès Communication-Jeunesse des livres préférés des jeunes</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Paulette Bourgeois et Brenda Clark, Franklin a peur du noir, Deux Coqs d'Or, 2005 (ISBN 2-01-391071-1)</t>
         </is>
